--- a/xl/course_participants.xlsx
+++ b/xl/course_participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/python-for-excel/material/ch04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arno/Coding/python-for-excel/xl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C3465C-E2E7-7547-83E7-56DB60E1F49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09206281-F299-7244-9183-06E43FCEC0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3860" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{D8AE91DD-D984-C848-920F-CB3FB60A3001}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{D8AE91DD-D984-C848-920F-CB3FB60A3001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>user_id</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Simon</t>
   </si>
 </sst>
 </file>
@@ -114,11 +123,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -134,8 +146,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C073F1C-1658-B643-8ABA-53620616B28F}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{787D56BE-AC09-B24B-A6CC-3431B3C0CC48}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C073F1C-1658-B643-8ABA-53620616B28F}" name="tbl_particpants" displayName="tbl_particpants" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7" xr:uid="{787D56BE-AC09-B24B-A6CC-3431B3C0CC48}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -148,15 +160,15 @@
     <tableColumn id="2" xr3:uid="{A7FEE947-63BA-9443-8CAF-AEC4B6ECECBC}" name="name"/>
     <tableColumn id="3" xr3:uid="{1EA5BC8F-1950-2F49-8C5B-EC81729D7835}" name="age"/>
     <tableColumn id="4" xr3:uid="{050A8C62-BFD9-C243-A622-4EA9B52EF12F}" name="country"/>
+    <tableColumn id="6" xr3:uid="{08E2FF2B-784A-B34B-9DE4-D5F8E3C5B06A}" name="continent"/>
     <tableColumn id="5" xr3:uid="{76258EF7-9756-7044-BD36-FF1FDC02B27F}" name="score"/>
-    <tableColumn id="6" xr3:uid="{08E2FF2B-784A-B34B-9DE4-D5F8E3C5B06A}" name="continent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -452,9 +464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCAF46B-2496-1546-A289-FC4E1B988F1A}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -475,10 +489,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -494,11 +508,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>4.5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -514,11 +528,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>6.7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -534,11 +548,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
         <v>3.9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -554,12 +568,55 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1008</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
